--- a/batt_sust_model/data/default_manufacturing_cost_parameters.xlsx
+++ b/batt_sust_model/data/default_manufacturing_cost_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Batt_Sust_Model\batt_sust_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0554CB-2538-4A83-B3EA-86FA21D3B9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{1A6F3530-5DEF-4AE1-B732-4B0F7716A258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8658AEF-A4D4-42D9-8F16-DEA8DA94D7C2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>cell stacking</t>
   </si>
@@ -82,36 +82,15 @@
     <t>control lab</t>
   </si>
   <si>
-    <t>rack loading</t>
-  </si>
-  <si>
-    <t>formation cycling</t>
-  </si>
-  <si>
-    <t>charge-retention testing</t>
-  </si>
-  <si>
-    <t>cell sealing and rack unloading</t>
-  </si>
-  <si>
     <t>dry room management</t>
   </si>
   <si>
     <t>solvent recovery</t>
   </si>
   <si>
-    <t>material handling</t>
-  </si>
-  <si>
-    <t>shipping</t>
-  </si>
-  <si>
     <t>rejected cell and scrap recycling</t>
   </si>
   <si>
-    <t>receiving</t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
@@ -181,9 +160,6 @@
     <t>BatPaC process</t>
   </si>
   <si>
-    <t>LCA process</t>
-  </si>
-  <si>
     <t>module and pack assembly</t>
   </si>
   <si>
@@ -223,98 +199,131 @@
     <t>negative_active_material/baseline_negative_active_material</t>
   </si>
   <si>
-    <t>electrode_area/baseline_electrode_area</t>
-  </si>
-  <si>
-    <t>binder_solvent_recovery/baseline_positive_binder_evaporate_kg</t>
-  </si>
-  <si>
     <t>total_cell/baseline_total_cell</t>
   </si>
   <si>
-    <t>dry_room_area/baseline_dry_room_area</t>
+    <t>baseline_full_day_operation</t>
+  </si>
+  <si>
+    <t>baseline_energy</t>
+  </si>
+  <si>
+    <t>baseline_required_cell</t>
+  </si>
+  <si>
+    <t>baseline_total_cell</t>
+  </si>
+  <si>
+    <t>baseline_positive_active_material</t>
+  </si>
+  <si>
+    <t>baseline_negative_active_material</t>
+  </si>
+  <si>
+    <t>baseline_total_cell/total_cell</t>
+  </si>
+  <si>
+    <t>baseline_required_cell/required_cell</t>
+  </si>
+  <si>
+    <t>baseline_positive_active_material/positive_active_material</t>
+  </si>
+  <si>
+    <t>baseline_negative_active_material/positive_negative_material</t>
+  </si>
+  <si>
+    <t>cathode binder solvent waste recovery</t>
+  </si>
+  <si>
+    <t>cathode notching</t>
+  </si>
+  <si>
+    <t>anode notching</t>
+  </si>
+  <si>
+    <t>x-ray inspection</t>
+  </si>
+  <si>
+    <t>baseline_row_racks</t>
+  </si>
+  <si>
+    <t>modules_cell_interconnects</t>
+  </si>
+  <si>
+    <t>baseline_positive_electrode_area</t>
+  </si>
+  <si>
+    <t>baseline_negative_electrode_area</t>
+  </si>
+  <si>
+    <t>positive_electrode_area/baseline_positive_electrode_area</t>
+  </si>
+  <si>
+    <t>negative_electrode_area/baseline_negative_electrode_area</t>
+  </si>
+  <si>
+    <t>vacuum drying anode</t>
+  </si>
+  <si>
+    <t>vacuum drying cathode</t>
+  </si>
+  <si>
+    <t>max(total_cell/baseline_total_cell, (positive_electrode_area+negative_electrode_area)/(baseline_positive_electrode_area+baseline_negative_electrode_area))</t>
+  </si>
+  <si>
+    <t>total_modules/baseline_total_modules</t>
+  </si>
+  <si>
+    <t>baseline_total_modules</t>
+  </si>
+  <si>
+    <t>total_packs/baseline_total_packs</t>
+  </si>
+  <si>
+    <t>baseline_total_packs</t>
+  </si>
+  <si>
+    <t>building support systems</t>
+  </si>
+  <si>
+    <t>foreground process</t>
+  </si>
+  <si>
+    <t>baseline_pos_solvent_evaporated_m2</t>
+  </si>
+  <si>
+    <t>baseline_neg_solvent_evaporated_m2</t>
+  </si>
+  <si>
+    <t>baseline_pos_solvent_evaporated_kg</t>
+  </si>
+  <si>
+    <t>baseline_neg_solvent_evaporated_kg</t>
+  </si>
+  <si>
+    <t>binder_solvent_recovery/baseline_pos_solvent_evaporated_kg</t>
+  </si>
+  <si>
+    <t>US$ million</t>
+  </si>
+  <si>
+    <t>warehouse</t>
   </si>
   <si>
     <t>(1-py_cell_aging)/py_cell_aging*total_cell/(1-py_cell_aging)*py_cell_aging/baseline_total_cell</t>
   </si>
   <si>
-    <t>baseline_packs</t>
-  </si>
-  <si>
-    <t>baseline_full_day_operation</t>
-  </si>
-  <si>
-    <t>baseline_energy</t>
-  </si>
-  <si>
-    <t>baseline_required_cell</t>
-  </si>
-  <si>
-    <t>baseline_total_cell</t>
-  </si>
-  <si>
-    <t>baseline_electrode_area</t>
-  </si>
-  <si>
-    <t>baseline_positive_active_material</t>
-  </si>
-  <si>
-    <t>baseline_negative_active_material</t>
-  </si>
-  <si>
-    <t>baseline_positive_binder_evaporate_kg</t>
-  </si>
-  <si>
-    <t>baseline_negative_binder_evaporate_kg</t>
-  </si>
-  <si>
-    <t>baseline_dry_room_area</t>
-  </si>
-  <si>
-    <t>baseline_total_cell/total_cell</t>
-  </si>
-  <si>
-    <t>baseline_required_cell/required_cell</t>
-  </si>
-  <si>
-    <t>baseline_positive_active_material/positive_active_material</t>
-  </si>
-  <si>
-    <t>baseline_negative_active_material/positive_negative_material</t>
-  </si>
-  <si>
-    <t>US$ (2018) million</t>
-  </si>
-  <si>
-    <t>cathode binder solvent waste recovery</t>
-  </si>
-  <si>
-    <t>cathode notching</t>
-  </si>
-  <si>
-    <t>anode notching</t>
-  </si>
-  <si>
-    <t>x-ray inspection</t>
-  </si>
-  <si>
-    <t>building support system</t>
-  </si>
-  <si>
-    <t>base</t>
+    <t>building and supporting systems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -352,24 +361,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -381,7 +378,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,38 +389,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Comma" xfId="10" builtinId="3"/>
+  <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{BBAD9B29-0260-4818-A730-1235CE0196AD}"/>
     <cellStyle name="Currency 2" xfId="5" xr:uid="{016DD006-B498-4C02-A6A4-BC813B39052C}"/>
     <cellStyle name="Currency 3" xfId="8" xr:uid="{E4BECD7A-2A67-4200-AE07-A5FD7F3014F9}"/>
@@ -784,40 +759,40 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -827,37 +802,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="26.140625" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="26.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25" customWidth="1"/>
     <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -867,381 +842,394 @@
     <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>13000</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>200000</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5">
+        <v>270000</v>
+      </c>
+      <c r="C5">
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>59000</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B7">
+        <v>47000</v>
+      </c>
+      <c r="C7">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>17000</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>47000</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>53000</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>250000</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>250000</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>41000</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>35000</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>150000</v>
+      </c>
+      <c r="C15">
+        <v>34.5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>150000</v>
+      </c>
+      <c r="C16">
+        <v>34.5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>530000</v>
+      </c>
+      <c r="C17">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>180000</v>
+      </c>
+      <c r="C18">
+        <v>190</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>180000</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>55000</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>126000</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>7.3</v>
+      </c>
+      <c r="D22">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>560000</v>
+      </c>
+      <c r="C23">
+        <v>830</v>
+      </c>
+      <c r="D23">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>170000</v>
+      </c>
+      <c r="C24">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="B25">
+        <v>170000</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+      <c r="D25">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1700</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>38000</v>
+      </c>
+      <c r="C27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D27">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="B28">
+        <v>48000</v>
+      </c>
+      <c r="C28">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>1600</v>
-      </c>
-      <c r="D2">
-        <v>37000</v>
-      </c>
-      <c r="E2">
-        <v>29000</v>
-      </c>
-      <c r="F2">
-        <v>8000</v>
-      </c>
-      <c r="G2">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="3">
-        <v>500</v>
-      </c>
-      <c r="I2">
-        <v>8000</v>
-      </c>
-      <c r="J2">
-        <v>9000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L2" s="6">
-        <v>14000</v>
-      </c>
-      <c r="M2" s="6">
-        <v>14000</v>
-      </c>
-      <c r="N2" s="8">
-        <v>7000</v>
-      </c>
-      <c r="O2">
-        <v>24500</v>
-      </c>
-      <c r="P2">
-        <v>24500</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>500</v>
-      </c>
-      <c r="R2">
-        <v>73000</v>
-      </c>
-      <c r="S2">
-        <v>18000</v>
-      </c>
-      <c r="T2" s="10">
-        <v>18000</v>
-      </c>
-      <c r="U2" s="10">
-        <v>6000</v>
-      </c>
-      <c r="V2" s="10">
-        <v>12000</v>
-      </c>
-      <c r="W2" s="10">
-        <v>5000</v>
-      </c>
-      <c r="X2">
-        <v>1600</v>
-      </c>
-      <c r="Y2">
-        <v>350</v>
-      </c>
-      <c r="Z2">
-        <v>1799.9999999999998</v>
-      </c>
-      <c r="AA2">
-        <v>600</v>
-      </c>
-      <c r="AB2">
-        <v>1200</v>
-      </c>
-      <c r="AC2">
-        <v>1500</v>
-      </c>
-      <c r="AD2">
-        <v>1000</v>
-      </c>
-      <c r="AE2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="E3">
-        <v>220</v>
-      </c>
-      <c r="F3">
-        <v>110</v>
-      </c>
-      <c r="G3">
-        <v>110</v>
-      </c>
-      <c r="H3" s="3">
-        <v>14.999999999999998</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4</v>
-      </c>
-      <c r="L3" s="7">
-        <v>110</v>
-      </c>
-      <c r="M3" s="7">
-        <v>110</v>
-      </c>
-      <c r="N3" s="9">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>45</v>
-      </c>
-      <c r="P3">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>150</v>
-      </c>
-      <c r="S3">
-        <v>140</v>
-      </c>
-      <c r="T3" s="11">
-        <v>140</v>
-      </c>
-      <c r="U3" s="11">
-        <v>10</v>
-      </c>
-      <c r="V3" s="11">
-        <v>10</v>
-      </c>
-      <c r="W3" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="X3">
-        <v>28.75</v>
-      </c>
-      <c r="Y3">
-        <v>27.999999999999996</v>
-      </c>
-      <c r="Z3">
-        <v>4</v>
-      </c>
-      <c r="AA3">
-        <v>14.999999999999998</v>
-      </c>
-      <c r="AB3">
-        <v>16</v>
-      </c>
-      <c r="AC3">
-        <v>11</v>
-      </c>
-      <c r="AD3">
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="AE3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>24000</v>
-      </c>
-      <c r="D4">
-        <v>9400</v>
-      </c>
-      <c r="E4">
-        <v>9400</v>
-      </c>
-      <c r="F4">
-        <v>22500</v>
-      </c>
-      <c r="G4">
-        <v>22500</v>
-      </c>
-      <c r="H4" s="3">
-        <v>14399.999999999998</v>
-      </c>
-      <c r="I4">
-        <v>3000</v>
-      </c>
-      <c r="J4">
-        <v>3000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>57599.999999999993</v>
-      </c>
-      <c r="L4" s="6">
-        <v>4500</v>
-      </c>
-      <c r="M4" s="6">
-        <v>4500</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2600</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>57599.999999999993</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
-        <v>45000</v>
-      </c>
-      <c r="X4">
-        <v>21600</v>
-      </c>
-      <c r="Y4">
-        <v>36000</v>
-      </c>
-      <c r="Z4">
-        <v>10800</v>
-      </c>
-      <c r="AA4">
-        <v>28799.999999999996</v>
-      </c>
-      <c r="AB4">
-        <v>86400</v>
-      </c>
-      <c r="AC4">
-        <v>72000</v>
-      </c>
-      <c r="AD4">
-        <v>9599.9999999999982</v>
-      </c>
-      <c r="AE4">
-        <v>72000</v>
+      <c r="D28">
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -1252,373 +1240,419 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB89265-DBC6-4B9E-B92E-1AD9A493B956}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="29.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="29.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" customWidth="1"/>
+    <col min="28" max="28" width="29.7109375" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
-      </c>
-      <c r="E2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.9</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>0.7</v>
       </c>
-      <c r="F2">
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>0.7</v>
       </c>
-      <c r="G2">
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>0.7</v>
       </c>
-      <c r="H2">
+      <c r="C7">
+        <v>0.95</v>
+      </c>
+      <c r="D7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>0.7</v>
       </c>
-      <c r="I2">
+      <c r="C8">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>0.7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="C9">
+        <v>0.9</v>
+      </c>
+      <c r="D9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
         <v>0.7</v>
       </c>
-      <c r="K2">
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="D10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
         <v>0.7</v>
       </c>
-      <c r="L2">
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
         <v>0.7</v>
       </c>
-      <c r="M2">
+      <c r="C12">
+        <v>0.9</v>
+      </c>
+      <c r="D12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
         <v>0.7</v>
       </c>
-      <c r="N2">
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>0.7</v>
       </c>
-      <c r="O2">
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
         <v>0.7</v>
       </c>
-      <c r="P2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>0.9</v>
-      </c>
-      <c r="R2">
-        <v>0.9</v>
-      </c>
-      <c r="S2">
-        <v>0.9</v>
-      </c>
-      <c r="T2">
-        <v>0.9</v>
-      </c>
-      <c r="U2">
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.9</v>
+      </c>
+      <c r="C16">
+        <v>0.9</v>
+      </c>
+      <c r="D16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.9</v>
+      </c>
+      <c r="C17">
+        <v>0.9</v>
+      </c>
+      <c r="D17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>0.9</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+      <c r="D18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>0.9</v>
+      </c>
+      <c r="D20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
         <v>0.7</v>
       </c>
-      <c r="V2">
+      <c r="C21">
+        <v>0.9</v>
+      </c>
+      <c r="D21">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
         <v>0.7</v>
       </c>
-      <c r="W2">
+      <c r="C22">
+        <v>0.95</v>
+      </c>
+      <c r="D22">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
         <v>0.7</v>
       </c>
-      <c r="X2">
+      <c r="C23">
+        <v>0.95</v>
+      </c>
+      <c r="D23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
         <v>0.7</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
+      <c r="C24">
+        <v>0.95</v>
+      </c>
+      <c r="D24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
         <v>0.7</v>
       </c>
-      <c r="AA2">
+      <c r="C25">
+        <v>0.95</v>
+      </c>
+      <c r="D25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>0.95</v>
-      </c>
-      <c r="C3">
-        <v>0.9</v>
-      </c>
-      <c r="D3">
-        <v>0.9</v>
-      </c>
-      <c r="E3">
-        <v>0.9</v>
-      </c>
-      <c r="F3">
-        <v>0.9</v>
-      </c>
-      <c r="G3">
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <v>0.9</v>
-      </c>
-      <c r="I3">
-        <v>0.9</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="C26">
+        <v>0.9</v>
+      </c>
+      <c r="D26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
         <v>0.7</v>
       </c>
-      <c r="K3">
-        <v>0.9</v>
-      </c>
-      <c r="L3">
-        <v>0.9</v>
-      </c>
-      <c r="M3">
-        <v>0.9</v>
-      </c>
-      <c r="N3">
-        <v>0.9</v>
-      </c>
-      <c r="O3">
-        <v>0.9</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="Q3">
-        <v>0.9</v>
-      </c>
-      <c r="R3">
-        <v>0.9</v>
-      </c>
-      <c r="S3">
-        <v>0.9</v>
-      </c>
-      <c r="T3">
-        <v>0.9</v>
-      </c>
-      <c r="U3">
-        <v>0.9</v>
-      </c>
-      <c r="V3">
-        <v>0.95</v>
-      </c>
-      <c r="W3">
-        <v>0.95</v>
-      </c>
-      <c r="X3">
-        <v>0.95</v>
-      </c>
-      <c r="Y3">
-        <v>0.95</v>
-      </c>
-      <c r="Z3">
-        <v>0.9</v>
-      </c>
-      <c r="AA3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0.95</v>
-      </c>
-      <c r="C4">
-        <v>0.95</v>
-      </c>
-      <c r="D4">
-        <v>0.95</v>
-      </c>
-      <c r="E4">
-        <v>0.95</v>
-      </c>
-      <c r="F4">
-        <v>0.95</v>
-      </c>
-      <c r="G4">
-        <v>0.95</v>
-      </c>
-      <c r="H4">
-        <v>0.95</v>
-      </c>
-      <c r="I4">
-        <v>0.95</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="K4">
-        <v>0.95</v>
-      </c>
-      <c r="L4">
-        <v>0.95</v>
-      </c>
-      <c r="M4">
-        <v>0.95</v>
-      </c>
-      <c r="N4">
-        <v>0.95</v>
-      </c>
-      <c r="O4">
-        <v>0.95</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="Q4">
-        <v>0.95</v>
-      </c>
-      <c r="R4">
-        <v>0.95</v>
-      </c>
-      <c r="S4">
-        <v>0.95</v>
-      </c>
-      <c r="T4">
-        <v>0.95</v>
-      </c>
-      <c r="U4">
-        <v>0.95</v>
-      </c>
-      <c r="V4">
-        <v>0.95</v>
-      </c>
-      <c r="W4">
-        <v>0.95</v>
-      </c>
-      <c r="X4">
-        <v>0.95</v>
-      </c>
-      <c r="Y4">
-        <v>0.6</v>
-      </c>
-      <c r="Z4">
-        <v>0.95</v>
-      </c>
-      <c r="AA4">
+      <c r="C27">
+        <v>0.95</v>
+      </c>
+      <c r="D27">
         <v>0.95</v>
       </c>
     </row>
@@ -1643,15 +1677,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0.85</v>
@@ -1659,7 +1693,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0.85</v>
@@ -1667,7 +1701,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -1675,7 +1709,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0.85</v>
@@ -1695,14 +1729,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="A24:B24"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="148.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -1719,18 +1753,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1788,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,15 +1796,15 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,151 +1820,151 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1978,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,58 +1989,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2017,137 +2051,175 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A561B7B-0054-4D54-BE66-D844CA327308}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>500000</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="5">
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>320</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>960</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="5">
+        <v>50000000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>47059999.999999978</v>
+        <v>80</v>
+      </c>
+      <c r="B6" s="5">
+        <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>200000000</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2000000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>210526315.78947365</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>816082117.81024146</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="5">
+        <v>270000000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5">
-        <v>79833783.504177004</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5">
-        <v>47497395.855052516</v>
+        <v>211000000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5">
-        <v>39916891.752088502</v>
+        <v>303000000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5">
-        <v>23264030.622882865</v>
+        <v>315000000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5">
-        <v>28025.29769464225</v>
+        <v>72500000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B15" s="5">
+        <v>49100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="5">
+        <v>36300000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5">
+        <v>24100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7.9307577715231503E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.11950458192929046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,30 +2231,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E004CA40-7BF9-4CA0-BA26-8A2A89620FCF}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,26 +2277,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2243,15 +2317,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2259,15 +2333,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2275,114 +2349,114 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/batt_sust_model/data/default_manufacturing_cost_parameters.xlsx
+++ b/batt_sust_model/data/default_manufacturing_cost_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Batt_Sust_Model-1\batt_sust_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="8_{1A6F3530-5DEF-4AE1-B732-4B0F7716A258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8658AEF-A4D4-42D9-8F16-DEA8DA94D7C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A8CD6D-A289-472A-8103-C94C88D4DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
   <si>
     <t>cell stacking</t>
   </si>
@@ -172,12 +172,6 @@
     <t>p_value</t>
   </si>
   <si>
-    <t>positive active material</t>
-  </si>
-  <si>
-    <t>negative active material</t>
-  </si>
-  <si>
     <t>cell container</t>
   </si>
   <si>
@@ -226,12 +220,6 @@
     <t>baseline_required_cell/required_cell</t>
   </si>
   <si>
-    <t>baseline_positive_active_material/positive_active_material</t>
-  </si>
-  <si>
-    <t>baseline_negative_active_material/positive_negative_material</t>
-  </si>
-  <si>
     <t>cathode binder solvent waste recovery</t>
   </si>
   <si>
@@ -247,9 +235,6 @@
     <t>baseline_row_racks</t>
   </si>
   <si>
-    <t>modules_cell_interconnects</t>
-  </si>
-  <si>
     <t>baseline_positive_electrode_area</t>
   </si>
   <si>
@@ -314,6 +299,33 @@
   </si>
   <si>
     <t>building and supporting systems</t>
+  </si>
+  <si>
+    <t>cell group interconnect</t>
+  </si>
+  <si>
+    <t>module polymer panels</t>
+  </si>
+  <si>
+    <t>module terminal</t>
+  </si>
+  <si>
+    <t>module container</t>
+  </si>
+  <si>
+    <t>gas release</t>
+  </si>
+  <si>
+    <t>baseline_modules_cell_interconnects</t>
+  </si>
+  <si>
+    <t>baseline_modules_cell_interconnects/modules_cell_interconnects</t>
+  </si>
+  <si>
+    <t>baseline_total_modules/total_modules</t>
+  </si>
+  <si>
+    <t>material_exponent</t>
   </si>
 </sst>
 </file>
@@ -861,7 +873,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -869,7 +881,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>13000</v>
@@ -981,7 +993,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>250000</v>
@@ -995,7 +1007,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>250000</v>
@@ -1009,7 +1021,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>41000</v>
@@ -1023,7 +1035,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>35000</v>
@@ -1094,7 +1106,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>180000</v>
@@ -1192,7 +1204,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1294,7 +1306,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -1406,7 +1418,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -1420,7 +1432,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -1434,7 +1446,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>0.7</v>
@@ -1448,7 +1460,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>0.7</v>
@@ -1518,7 +1530,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>0.9</v>
@@ -1616,7 +1628,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>0.7</v>
@@ -1664,15 +1676,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B755AEEB-D236-48DA-8E1A-6B29670717F4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,33 +1697,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
         <v>0.85</v>
       </c>
     </row>
@@ -1729,7 +1717,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,10 +1749,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,39 +1808,39 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,15 +1872,15 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1912,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1920,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,15 +1928,15 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +1952,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1975,15 +1963,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6E5809-5395-4FA9-B145-283CD735A680}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1997,50 +1985,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2053,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A561B7B-0054-4D54-BE66-D844CA327308}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,7 +2085,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5">
         <v>320</v>
@@ -2097,7 +2109,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5">
         <v>50000000</v>
@@ -2105,7 +2117,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>500000</v>
@@ -2113,7 +2125,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5">
         <v>2000000</v>
@@ -2121,7 +2133,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5">
         <v>10000000</v>
@@ -2129,7 +2141,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B9" s="5">
         <v>270000000</v>
@@ -2137,7 +2149,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5">
         <v>200000000</v>
@@ -2145,7 +2157,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5">
         <v>211000000</v>
@@ -2153,7 +2165,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5">
         <v>303000000</v>
@@ -2161,7 +2173,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5">
         <v>315000000</v>
@@ -2169,7 +2181,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5">
         <v>72500000</v>
@@ -2177,7 +2189,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5">
         <v>49100000</v>
@@ -2185,7 +2197,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5">
         <v>36300000</v>
@@ -2193,7 +2205,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B17" s="5">
         <v>24100000</v>
@@ -2201,7 +2213,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B18" s="4">
         <v>7.9307577715231503E-2</v>
@@ -2209,7 +2221,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4">
         <v>0.11950458192929046</v>
@@ -2231,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E004CA40-7BF9-4CA0-BA26-8A2A89620FCF}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2248,15 +2260,15 @@
         <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2308,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2329,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2325,7 +2337,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2333,7 +2345,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2341,7 +2353,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2381,7 +2393,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -2437,10 +2449,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2460,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/batt_sust_model/data/default_manufacturing_cost_parameters.xlsx
+++ b/batt_sust_model/data/default_manufacturing_cost_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Batt_Sust_Model-1\batt_sust_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/batt_sust_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A8CD6D-A289-472A-8103-C94C88D4DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{D9A8CD6D-A289-472A-8103-C94C88D4DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B479941-1724-479D-8ACA-A3B0DF367E86}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="volume_ratio_mapping" sheetId="4" r:id="rId5"/>
     <sheet name="volume_ratio_mapping_materials" sheetId="8" r:id="rId6"/>
     <sheet name="default_manufacturing_rates" sheetId="5" r:id="rId7"/>
-    <sheet name="process_mapping" sheetId="6" r:id="rId8"/>
+    <sheet name="cost_rates" sheetId="9" r:id="rId8"/>
+    <sheet name="process_mapping" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
   <si>
     <t>cell stacking</t>
   </si>
@@ -326,6 +327,60 @@
   </si>
   <si>
     <t>material_exponent</t>
+  </si>
+  <si>
+    <t>variable_overhead_labor</t>
+  </si>
+  <si>
+    <t>pack_profit</t>
+  </si>
+  <si>
+    <t>working_capital</t>
+  </si>
+  <si>
+    <t>battery_warranty_costs</t>
+  </si>
+  <si>
+    <t>GSA_labour</t>
+  </si>
+  <si>
+    <t>r_and_d</t>
+  </si>
+  <si>
+    <t>launch_cost_labor</t>
+  </si>
+  <si>
+    <t>% annual variable cost</t>
+  </si>
+  <si>
+    <t>% of direct labor</t>
+  </si>
+  <si>
+    <t>% of investment</t>
+  </si>
+  <si>
+    <t>% of pack cost</t>
+  </si>
+  <si>
+    <t>% of depreciation</t>
+  </si>
+  <si>
+    <t>variable_overhead_depreciation</t>
+  </si>
+  <si>
+    <t>GSA_depreciation</t>
+  </si>
+  <si>
+    <t>lifetime_capital_equipment</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>launch_cost_material</t>
+  </si>
+  <si>
+    <t>% of direct material cost</t>
   </si>
 </sst>
 </file>
@@ -337,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +427,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,13 +463,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{BBAD9B29-0260-4818-A730-1235CE0196AD}"/>
@@ -2065,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A561B7B-0054-4D54-BE66-D844CA327308}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,6 +2304,170 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082350F5-846A-418F-B18C-1D27DF7D6F62}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E004CA40-7BF9-4CA0-BA26-8A2A89620FCF}">
   <dimension ref="A1:B27"/>
   <sheetViews>
